--- a/Excel/Berechnungstool_Imhof.xlsx
+++ b/Excel/Berechnungstool_Imhof.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F69641E-4D2C-4FDA-A4D0-DEFE1CC6E6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD28017-CD78-4B1D-867A-136863B42EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="61656" windowHeight="16776" xr2:uid="{6D3C65FD-B00F-46A1-A227-1588537BA5D5}"/>
+    <workbookView xWindow="22668" yWindow="2040" windowWidth="23964" windowHeight="16368" xr2:uid="{6D3C65FD-B00F-46A1-A227-1588537BA5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Prozent</t>
   </si>
@@ -188,9 +188,6 @@
     <t>Durchmesser (mm)</t>
   </si>
   <si>
-    <t>HiltiHit = 330 ml          Profix = 345 ml          Schnellbeton = 12000 ml</t>
-  </si>
-  <si>
     <t>Anteil Prozent</t>
   </si>
   <si>
@@ -201,6 +198,66 @@
   </si>
   <si>
     <t>jeremymeile@gmail.com</t>
+  </si>
+  <si>
+    <t>Fassa Bortolo GEOACTIVE EASY REPAIR 500</t>
+  </si>
+  <si>
+    <t>Mapei PLANITOP RASA &amp; RIPARA R4</t>
+  </si>
+  <si>
+    <t>Fassa Bortolo MT 140 (Mörtel normal)</t>
+  </si>
+  <si>
+    <t>pro Sack (25kg)</t>
+  </si>
+  <si>
+    <t>pro Kartusche</t>
+  </si>
+  <si>
+    <t>Fassa Bortolo MP 220  (Mörtel zement)</t>
+  </si>
+  <si>
+    <t>Fassa Bortolo GEOACTIVE JET T BLACK</t>
+  </si>
+  <si>
+    <t>Mapei PLANITOP TRAFFIC</t>
+  </si>
+  <si>
+    <t>Schnellbeton</t>
+  </si>
+  <si>
+    <t>HiltiHit</t>
+  </si>
+  <si>
+    <t>Profix</t>
+  </si>
+  <si>
+    <t>RHEOCRETE Fließmörtel</t>
+  </si>
+  <si>
+    <t>Volume Rechner</t>
+  </si>
+  <si>
+    <t>Höhe (m)</t>
+  </si>
+  <si>
+    <t>Breite (m)</t>
+  </si>
+  <si>
+    <t>Volume (m3)</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Ergiebigkeit (ml)</t>
+  </si>
+  <si>
+    <t>Ergiebigkeit (li)</t>
   </si>
 </sst>
 </file>
@@ -373,13 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1257,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,357 +1283,366 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1585,7 +1651,111 @@
     <cellStyle name="Notiz" xfId="2" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A8D4BAA7-5423-4486-9745-C0CC4CA9109D}"/>
   </tableStyles>
@@ -1652,6 +1822,24 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16803BA-64C3-4AA9-A79B-9C5D71B5170F}" name="Tabelle1" displayName="Tabelle1" ref="P94:S104" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="P94:S104" xr:uid="{F16803BA-64C3-4AA9-A79B-9C5D71B5170F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P95:R104">
+    <sortCondition ref="R94:R104"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{33413FB5-0676-4D27-92C9-98A7AC10125A}" name="Material" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D9017F73-A8E2-4B88-80CE-ED1E10BB7733}" name="Einheit" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B2FC3A6A-2FA9-460E-90F1-B2F38A237349}" name="Ergiebigkeit (ml)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7B0B3CA2-1765-42EF-BC93-EEE42D1FBFDC}" name="Ergiebigkeit (li)" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1952,1260 +2140,1443 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4B3F66-9D3F-4C91-8BE9-ECE6EDE6D365}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="41"/>
-    <col min="2" max="2" width="3.21875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="18" style="41" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.21875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="60.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="11.44140625" style="32"/>
+    <col min="2" max="2" width="3.21875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="18" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="32" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="26.77734375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" style="32" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40"/>
+      <c r="A1" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="3" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C6" s="47">
+      <c r="C6" s="34">
         <v>1</v>
       </c>
-      <c r="D6" s="29">
-        <v>100</v>
+      <c r="D6" s="23">
+        <v>449.1</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C7" s="48">
+      <c r="C7" s="35">
         <v>2</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C8" s="49">
+      <c r="C8" s="36">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C9" s="48">
+      <c r="C9" s="35">
         <v>4</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
+      <c r="D9" s="21"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C10" s="49">
+      <c r="C10" s="36">
         <v>5</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
+      <c r="D10" s="20"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C11" s="48">
+      <c r="C11" s="35">
         <v>6</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
+      <c r="D11" s="21"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C12" s="49">
+      <c r="C12" s="36">
         <v>7</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="D12" s="20"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C13" s="48">
+      <c r="C13" s="35">
         <v>8</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
+      <c r="D13" s="21"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C14" s="49">
+      <c r="C14" s="36">
         <v>9</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
+      <c r="D14" s="20"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C15" s="48">
+      <c r="C15" s="35">
         <v>10</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
+      <c r="D15" s="21"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
-      <c r="C16" s="49">
+      <c r="C16" s="36">
         <v>11</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="D16" s="20"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C17" s="48">
+      <c r="C17" s="35">
         <v>12</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="D17" s="21"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="49">
+      <c r="C18" s="36">
         <v>13</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="40">
         <f>SUM(D6:D18)</f>
-        <v>100</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
+        <v>449.1</v>
+      </c>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="31">
+        <f>MROUND(SUM(D19*D5),0.05)</f>
+        <v>67.350000000000009</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C21" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="42">
+        <f>MROUND(SUM(D19,D20),0.05)</f>
+        <v>516.45000000000005</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="37">
-        <f>MROUND(SUM(D19*D5),0.05)</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="58"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C21" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="59">
-        <f>MROUND(SUM(D19,D20),0.05)</f>
-        <v>115</v>
-      </c>
-      <c r="E21" s="58"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-    </row>
-    <row r="22" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="52"/>
-      <c r="C22" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="61">
+      <c r="D22" s="44">
         <f>MROUND(SUM(D19-D20),0.05)</f>
-        <v>85</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
+        <v>381.75</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="B23" s="52"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="J23" s="51"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="J23" s="38"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
     </row>
     <row r="26" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="27" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="28" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C29" s="18">
+      <c r="C29" s="12">
         <v>1</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>150</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="15">
         <v>30</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="49">
         <f>SUM(C29*(E29*0.01))</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C30" s="19"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="67">
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="50">
         <f t="shared" ref="F30:F40" si="0">SUM(C30*(E30*0.01))</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C31" s="18"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="66">
+      <c r="C31" s="12"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.5">
-      <c r="C32" s="19"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="67">
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C33" s="18"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="66">
+      <c r="C33" s="12"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C34" s="19"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="67">
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C35" s="18"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="66">
+      <c r="C35" s="12"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C36" s="19"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="67">
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C37" s="18"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="66">
+      <c r="C37" s="12"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C38" s="19"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="67">
+      <c r="C38" s="13"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C39" s="18"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="66">
+      <c r="C39" s="12"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="20"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="68">
+      <c r="C40" s="14"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" s="69"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="70" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="54">
         <f>SUM(F29:F40)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-    </row>
     <row r="45" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="46" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="102"/>
     </row>
     <row r="47" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C48" s="25">
+      <c r="C48" s="19">
         <v>1</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="15">
         <v>23</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="15">
         <v>10</v>
       </c>
-      <c r="F48" s="72">
-        <f>SUM(C48*(D48/100)*E48)</f>
+      <c r="F48" s="55">
+        <f t="shared" ref="F48:F59" si="1">SUM(C48*(D48/100)*E48)</f>
         <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C49" s="19">
+      <c r="C49" s="13">
         <v>1</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="16">
         <v>10</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="16">
         <v>8</v>
       </c>
-      <c r="F49" s="67">
-        <f>SUM(C49*(D49/100)*E49)</f>
+      <c r="F49" s="50">
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C50" s="18">
+      <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="17">
         <v>27</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="17">
         <v>1</v>
       </c>
-      <c r="F50" s="66">
-        <f>SUM(C50*(D50/100)*E50)</f>
+      <c r="F50" s="49">
+        <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C51" s="19"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="67">
-        <f>SUM(C51*(D51/100)*E51)</f>
+      <c r="C51" s="13"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C52" s="18"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="66">
-        <f>SUM(C52*(D52/100)*E52)</f>
+      <c r="C52" s="12"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="49">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C53" s="19"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="67">
-        <f>SUM(C53*(D53/100)*E53)</f>
+      <c r="C53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C54" s="18"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="66">
-        <f>SUM(C54*(D54/100)*E54)</f>
+      <c r="C54" s="12"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="49">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C55" s="19"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="67">
-        <f>SUM(C55*(D55/100)*E55)</f>
+      <c r="C55" s="13"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C56" s="18"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="66">
-        <f>SUM(C56*(D56/100)*E56)</f>
+      <c r="C56" s="12"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="49">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C57" s="19"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="67">
-        <f>SUM(C57*(D57/100)*E57)</f>
+      <c r="C57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="50">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C58" s="18"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="66">
-        <f>SUM(C58*(D58/100)*E58)</f>
+      <c r="C58" s="12"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="49">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" s="20"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="68">
-        <f>SUM(C59*(D59/100)*E59)</f>
+      <c r="C59" s="14"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="51">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C60" s="69"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="70" t="s">
+      <c r="C60" s="52"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="54">
         <f>SUM(F48:F59)</f>
         <v>3.3700000000000006</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.5">
-      <c r="D62" s="52"/>
-    </row>
     <row r="64" spans="3:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="65" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="45"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="102"/>
     </row>
     <row r="66" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="73" t="s">
+      <c r="E66" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="73" t="s">
+      <c r="F66" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="73" t="s">
+      <c r="G66" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="74" t="s">
+      <c r="H66" s="57" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C67" s="75">
+      <c r="C67" s="58">
         <v>8</v>
       </c>
-      <c r="D67" s="76">
+      <c r="D67" s="59">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="F67" s="77">
-        <f>D67*E67</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="78">
+      <c r="E67" s="25"/>
+      <c r="F67" s="60">
+        <f t="shared" ref="F67:F78" si="2">D67*E67</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="61">
         <v>2</v>
       </c>
-      <c r="H67" s="79">
+      <c r="H67" s="62">
         <f>F67*G67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C68" s="80">
+      <c r="C68" s="63">
         <v>10</v>
       </c>
-      <c r="D68" s="81">
+      <c r="D68" s="64">
         <v>0.61699999999999999</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="10"/>
+      <c r="F68" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="66">
+        <v>2</v>
+      </c>
+      <c r="H68" s="67">
+        <f t="shared" ref="H68:H78" si="3">F68*G68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C69" s="68">
+        <v>12</v>
+      </c>
+      <c r="D69" s="69">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="E69" s="11">
+        <v>25</v>
+      </c>
+      <c r="F69" s="70">
+        <f t="shared" si="2"/>
+        <v>22.2</v>
+      </c>
+      <c r="G69" s="71">
+        <v>2</v>
+      </c>
+      <c r="H69" s="72">
+        <f t="shared" si="3"/>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C70" s="63">
+        <v>14</v>
+      </c>
+      <c r="D70" s="64">
+        <v>1.21</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="66">
+        <v>2</v>
+      </c>
+      <c r="H70" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C71" s="68">
+        <v>16</v>
+      </c>
+      <c r="D71" s="69">
+        <v>1.58</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="71">
+        <v>2</v>
+      </c>
+      <c r="H71" s="72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C72" s="63">
+        <v>18</v>
+      </c>
+      <c r="D72" s="64">
+        <v>2</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="66">
+        <v>2</v>
+      </c>
+      <c r="H72" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C73" s="68">
+        <v>20</v>
+      </c>
+      <c r="D73" s="69">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="71">
+        <v>2</v>
+      </c>
+      <c r="H73" s="72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C74" s="63">
+        <v>22</v>
+      </c>
+      <c r="D74" s="64">
+        <v>2.98</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="66">
+        <v>2</v>
+      </c>
+      <c r="H74" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C75" s="68">
+        <v>26</v>
+      </c>
+      <c r="D75" s="69">
+        <v>4.17</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="71">
+        <v>2</v>
+      </c>
+      <c r="H75" s="72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C76" s="63">
+        <v>30</v>
+      </c>
+      <c r="D76" s="64">
+        <v>5.55</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="66">
+        <v>2</v>
+      </c>
+      <c r="H76" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C77" s="68">
+        <v>34</v>
+      </c>
+      <c r="D77" s="69">
+        <v>7.13</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="71">
+        <v>2</v>
+      </c>
+      <c r="H77" s="72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="73">
+        <v>40</v>
+      </c>
+      <c r="D78" s="74">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="76">
+        <v>2</v>
+      </c>
+      <c r="H78" s="77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="102"/>
+    </row>
+    <row r="80" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="82">
-        <f>D68*E68</f>
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="G68" s="83">
+      <c r="I80" s="47" t="str">
+        <f>"Gewicht für " &amp; MROUND(F81*G81,2) &amp; " m2"</f>
+        <v>Gewicht für 10 m2</v>
+      </c>
+      <c r="J80" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C81" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="59">
+        <v>10</v>
+      </c>
+      <c r="E81" s="59">
+        <v>30.2</v>
+      </c>
+      <c r="F81" s="25">
+        <v>5</v>
+      </c>
+      <c r="G81" s="27">
         <v>2</v>
       </c>
-      <c r="H68" s="84">
-        <f t="shared" ref="H68:H78" si="1">F68*G68</f>
-        <v>1.234</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C69" s="85">
+      <c r="H81" s="28">
+        <v>1</v>
+      </c>
+      <c r="I81" s="60">
+        <f>E81/D81*(F81*G81*H81)</f>
+        <v>30.2</v>
+      </c>
+      <c r="J81" s="61">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K81" s="62">
+        <f>I81*J81</f>
+        <v>73.990000000000009</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="74">
+        <v>10</v>
+      </c>
+      <c r="E82" s="74">
+        <v>53.7</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="76">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K82" s="77">
+        <f>I82*J82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="80"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="80"/>
+    </row>
+    <row r="86" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="87" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="101"/>
+      <c r="I87" s="101"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="102"/>
+    </row>
+    <row r="88" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H88" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J88" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" s="118"/>
+      <c r="L88" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="M88" s="119"/>
+    </row>
+    <row r="89" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="93">
+        <v>1</v>
+      </c>
+      <c r="D89" s="94">
+        <v>19</v>
+      </c>
+      <c r="E89" s="94">
+        <v>29</v>
+      </c>
+      <c r="F89" s="94">
         <v>12</v>
       </c>
-      <c r="D69" s="86">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="87">
-        <f>D69*E69</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="88">
-        <v>2</v>
-      </c>
-      <c r="H69" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C70" s="80">
-        <v>14</v>
-      </c>
-      <c r="D70" s="81">
-        <v>1.21</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="82">
-        <f>D70*E70</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="83">
-        <v>2</v>
-      </c>
-      <c r="H70" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C71" s="85">
+      <c r="G89" s="94">
+        <v>1</v>
+      </c>
+      <c r="H89" s="81">
+        <f>ROUNDUP(10000 / ((D89 + G89) * (E89 + G89)), 1)</f>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="I89" s="82">
+        <f>C89 * H89</f>
+        <v>16.700000000000003</v>
+      </c>
+      <c r="J89" s="121">
+        <f>(1.95 * F89 + 1 * H89 - 18.96) * G89</f>
+        <v>21.14</v>
+      </c>
+      <c r="K89" s="122"/>
+      <c r="L89" s="121">
+        <f>(1.82 * F89 + 0.86 * H89 - 19.84) *G89</f>
+        <v>16.361999999999998</v>
+      </c>
+      <c r="M89" s="123"/>
+    </row>
+    <row r="93" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="94" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="101"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="103"/>
+      <c r="J94" s="103"/>
+      <c r="K94" s="103"/>
+      <c r="L94" s="103"/>
+      <c r="M94" s="120"/>
+      <c r="P94" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q94" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="R94" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="S94" s="89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="86">
-        <v>1.58</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="87">
-        <f>D71*E71</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="88">
-        <v>2</v>
-      </c>
-      <c r="H71" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C72" s="80">
+      <c r="H95" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="118"/>
+      <c r="K95" s="118"/>
+      <c r="L95" s="118"/>
+      <c r="M95" s="119"/>
+      <c r="P95" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q95" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="R95" s="98">
+        <v>330</v>
+      </c>
+      <c r="S95" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C96" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="81">
-        <v>2</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="82">
-        <f>D72*E72</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="83">
-        <v>2</v>
-      </c>
-      <c r="H72" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C73" s="85">
-        <v>20</v>
-      </c>
-      <c r="D73" s="86">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="87">
-        <f>D73*E73</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="88">
-        <v>2</v>
-      </c>
-      <c r="H73" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C74" s="80">
-        <v>22</v>
-      </c>
-      <c r="D74" s="81">
-        <v>2.98</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="82">
-        <f>D74*E74</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="83">
-        <v>2</v>
-      </c>
-      <c r="H74" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C75" s="85">
-        <v>26</v>
-      </c>
-      <c r="D75" s="86">
-        <v>4.17</v>
-      </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="87">
-        <f>D75*E75</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="88">
-        <v>2</v>
-      </c>
-      <c r="H75" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C76" s="80">
-        <v>30</v>
-      </c>
-      <c r="D76" s="81">
-        <v>5.55</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="82">
-        <f>D76*E76</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="83">
-        <v>2</v>
-      </c>
-      <c r="H76" s="84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C77" s="85">
-        <v>34</v>
-      </c>
-      <c r="D77" s="86">
-        <v>7.13</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="87">
-        <f>D77*E77</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="88">
-        <v>2</v>
-      </c>
-      <c r="H77" s="89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C78" s="90">
-        <v>40</v>
-      </c>
-      <c r="D78" s="91">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="92">
-        <f>D78*E78</f>
-        <v>0</v>
-      </c>
-      <c r="G78" s="93">
-        <v>2</v>
-      </c>
-      <c r="H78" s="94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="45"/>
-    </row>
-    <row r="80" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="I80" s="64" t="str">
-        <f>"Gewicht für " &amp; MROUND(F81*G81,2) &amp; " m2"</f>
-        <v>Gewicht für 6 m2</v>
-      </c>
-      <c r="J80" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="K80" s="65" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C81" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="76">
-        <v>10</v>
-      </c>
-      <c r="E81" s="76">
-        <v>30.2</v>
-      </c>
-      <c r="F81" s="31">
-        <v>3</v>
-      </c>
-      <c r="G81" s="33">
-        <v>2</v>
-      </c>
-      <c r="H81" s="34">
-        <v>1</v>
-      </c>
-      <c r="I81" s="77">
-        <f>E81/D81*(F81*G81*H81)</f>
-        <v>18.12</v>
-      </c>
-      <c r="J81" s="78">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K81" s="79">
-        <f>I81*J81</f>
-        <v>44.394000000000005</v>
-      </c>
-      <c r="L81" s="52"/>
-    </row>
-    <row r="82" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C82" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="91">
-        <v>10</v>
-      </c>
-      <c r="E82" s="91">
-        <v>53.7</v>
-      </c>
-      <c r="F82" s="32"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="93">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="K82" s="94">
-        <f>I82*J82</f>
-        <v>0</v>
-      </c>
-      <c r="L82" s="52"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="97"/>
-      <c r="L83" s="52"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="97"/>
-      <c r="L84" s="52"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-    </row>
-    <row r="86" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="87" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-    </row>
-    <row r="88" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C88" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="H88" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="J88" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="K88" s="98"/>
-      <c r="L88" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="M88" s="99"/>
-    </row>
-    <row r="89" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" s="119">
-        <v>1</v>
-      </c>
-      <c r="D89" s="120">
-        <v>14</v>
-      </c>
-      <c r="E89" s="120">
-        <v>29</v>
-      </c>
-      <c r="F89" s="120">
-        <v>7.5</v>
-      </c>
-      <c r="G89" s="120">
-        <v>1</v>
-      </c>
-      <c r="H89" s="100">
-        <f>ROUNDUP(10000 / ((D89 + G89) * (E89 + G89)), 1)</f>
-        <v>22.3</v>
-      </c>
-      <c r="I89" s="101">
-        <f>C89 * H89</f>
-        <v>22.3</v>
-      </c>
-      <c r="J89" s="102">
-        <f>(1.95 * F89 + 1 * H89 - 18.96) * G89</f>
-        <v>17.964999999999996</v>
-      </c>
-      <c r="K89" s="103"/>
-      <c r="L89" s="102">
-        <f>(1.82 * F89 + 0.86 * H89 - 19.84) *G89</f>
-        <v>12.988000000000003</v>
-      </c>
-      <c r="M89" s="104"/>
-    </row>
-    <row r="93" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="94" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="42" t="s">
+      <c r="D96" s="7">
         <v>15</v>
-      </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="105"/>
-    </row>
-    <row r="95" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C95" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="F95" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="98"/>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="99"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C96" s="106" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="13">
-        <v>1</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G96" s="2">
-        <v>400</v>
-      </c>
-      <c r="H96" s="107">
+        <v>300</v>
+      </c>
+      <c r="H96" s="84">
         <f>ROUND(D96*PI()*(F96/2)^2*G96/1000, 1)</f>
-        <v>384.8</v>
-      </c>
-      <c r="I96" s="7" t="str">
+        <v>8835.7000000000007</v>
+      </c>
+      <c r="I96" s="114" t="str">
         <f>"= " &amp; D96 &amp; " Stk. * π * (" &amp; F96 &amp; " mm / 2)² * " &amp; G96 &amp; " mm / 1000"</f>
-        <v>= 1 Stk. * π * (35 mm / 2)² * 400 mm / 1000</v>
-      </c>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="8"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.5">
-      <c r="C97" s="108" t="s">
+        <v>= 15 Stk. * π * (50 mm / 2)² * 300 mm / 1000</v>
+      </c>
+      <c r="J96" s="114"/>
+      <c r="K96" s="114"/>
+      <c r="L96" s="114"/>
+      <c r="M96" s="115"/>
+      <c r="P96" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q96" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="R96" s="98">
+        <v>345</v>
+      </c>
+      <c r="S96" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C97" s="85" t="s">
         <v>24</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="109">
+      <c r="H97" s="86">
         <f>ROUND(D96 * E97 * F97 * G97 / 1000, 1)</f>
         <v>0</v>
       </c>
-      <c r="I97" s="9" t="str">
+      <c r="I97" s="110" t="str">
         <f>"= " &amp; D96 &amp; " Stk. * " &amp; E97 &amp; " mm * " &amp; F97 &amp; " mm * " &amp; G96 &amp; " mm / 1000"</f>
-        <v>= 1 Stk. *  mm *  mm * 400 mm / 1000</v>
-      </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="10"/>
-    </row>
-    <row r="98" spans="3:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C98" s="110" t="s">
+        <v>= 15 Stk. *  mm *  mm * 300 mm / 1000</v>
+      </c>
+      <c r="J97" s="110"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="111"/>
+      <c r="P97" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q97" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R97" s="98">
+        <v>11364</v>
+      </c>
+      <c r="S97" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>11.364000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="14">
-        <v>1</v>
+      <c r="D98" s="8">
+        <v>15</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G98" s="4">
-        <v>400</v>
-      </c>
-      <c r="H98" s="111">
+        <v>300</v>
+      </c>
+      <c r="H98" s="88">
         <f>ROUND(D98*PI()*(F98/2)^2*G98/1000, 1)</f>
-        <v>282.7</v>
-      </c>
-      <c r="I98" s="11" t="str">
+        <v>692.7</v>
+      </c>
+      <c r="I98" s="116" t="str">
         <f>"= " &amp; D98 &amp; " Stk. * π * (" &amp; F98 &amp; " mm / 2)² * " &amp; G98 &amp; " mm / 1000"</f>
-        <v>= 1 Stk. * π * (30 mm / 2)² * 400 mm / 1000</v>
-      </c>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="12"/>
-    </row>
-    <row r="99" spans="3:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D99" s="112"/>
-      <c r="E99" s="112"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="113" t="s">
+        <v>= 15 Stk. * π * (14 mm / 2)² * 300 mm / 1000</v>
+      </c>
+      <c r="J98" s="116"/>
+      <c r="K98" s="116"/>
+      <c r="L98" s="116"/>
+      <c r="M98" s="117"/>
+      <c r="P98" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q98" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R98" s="98">
+        <v>12000</v>
+      </c>
+      <c r="S98" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="114">
+      <c r="H99" s="91">
         <f>H96-H98-H97</f>
-        <v>102.10000000000002</v>
-      </c>
-      <c r="I99" s="112"/>
-      <c r="J99" s="112"/>
-      <c r="K99" s="112"/>
-      <c r="L99" s="112"/>
-      <c r="M99" s="112"/>
-    </row>
-    <row r="100" spans="3:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G100" s="115" t="s">
+        <v>8143.0000000000009</v>
+      </c>
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="89"/>
+      <c r="M99" s="89"/>
+      <c r="P99" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q99" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R99" s="98">
+        <v>12820</v>
+      </c>
+      <c r="S99" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G100" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="H100" s="15">
-        <v>330</v>
-      </c>
-      <c r="I100" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="J100" s="117"/>
-      <c r="K100" s="117"/>
-      <c r="L100" s="117"/>
-      <c r="M100" s="118"/>
-    </row>
-    <row r="101" spans="3:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G101" s="70" t="s">
+      <c r="H100" s="9">
+        <v>15625</v>
+      </c>
+      <c r="I100" s="107"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="109"/>
+      <c r="P100" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q100" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R100" s="98">
+        <v>13160</v>
+      </c>
+      <c r="S100" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H101" s="114">
+      <c r="H101" s="91">
         <f>H99/H100</f>
-        <v>0.30939393939393944</v>
+        <v>0.52115200000000006</v>
+      </c>
+      <c r="P101" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q101" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R101" s="98">
+        <v>14500</v>
+      </c>
+      <c r="S101" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H102" s="95"/>
+      <c r="P102" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q102" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R102" s="98">
+        <v>14710</v>
+      </c>
+      <c r="S102" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>14.71</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="101"/>
+      <c r="K103" s="101"/>
+      <c r="L103" s="101"/>
+      <c r="M103" s="102"/>
+      <c r="P103" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q103" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R103" s="98">
+        <v>15625</v>
+      </c>
+      <c r="S103" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G104" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="P104" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q104" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R104" s="98">
+        <v>17500</v>
+      </c>
+      <c r="S104" s="99">
+        <f>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D105" s="94">
+        <v>4</v>
+      </c>
+      <c r="E105" s="94">
+        <v>0.03</v>
+      </c>
+      <c r="F105" s="96">
+        <f>C105*D105*E105</f>
+        <v>0.49199999999999994</v>
+      </c>
+      <c r="G105" s="96">
+        <f>F105*1000000</f>
+        <v>491999.99999999994</v>
+      </c>
+      <c r="H105" s="94">
+        <v>11364</v>
+      </c>
+      <c r="I105" s="97">
+        <f>G105/H105</f>
+        <v>43.294614572333678</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v54Sn6aDnakf4bSVXFIDOAdQ+nkEYCRRxwDt4X9wgvh8wWvfGa5Zhzr0oZxnCKA6Cw6d7X0FtZuVTz5147Lb/A==" saltValue="dOfSbwiFq3Ly0CjY2qruDA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="19">
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="20">
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B65:M65"/>
+    <mergeCell ref="B79:M79"/>
     <mergeCell ref="B46:M46"/>
     <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B103:M103"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="I100:M100"/>
@@ -3219,10 +3590,6 @@
     <mergeCell ref="B87:M87"/>
     <mergeCell ref="J88:K88"/>
     <mergeCell ref="J89:K89"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B65:M65"/>
-    <mergeCell ref="B79:M79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{8755FF45-AE32-43C5-A8E5-3C9AD9B516FE}"/>
@@ -3234,5 +3601,8 @@
     <ignoredError sqref="D19" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Excel/Berechnungstool_Imhof.xlsx
+++ b/Excel/Berechnungstool_Imhof.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Berechnungshilfen\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD28017-CD78-4B1D-867A-136863B42EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210481D-3F14-4058-8FCC-57A543081F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22668" yWindow="2040" windowWidth="23964" windowHeight="16368" xr2:uid="{6D3C65FD-B00F-46A1-A227-1588537BA5D5}"/>
+    <workbookView xWindow="2004" yWindow="1092" windowWidth="35232" windowHeight="14676" xr2:uid="{6D3C65FD-B00F-46A1-A227-1588537BA5D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>Prozent</t>
   </si>
@@ -259,6 +260,127 @@
   <si>
     <t>Ergiebigkeit (li)</t>
   </si>
+  <si>
+    <t>Centuber</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Installation Bohranlage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pro Einsatz</t>
+    </r>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>Umstellen der Bohranlage</t>
+  </si>
+  <si>
+    <t>Kernbohrungen</t>
+  </si>
+  <si>
+    <t>D 300 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anschluss-Stücke einkleben </t>
+  </si>
+  <si>
+    <t>D 150 mm</t>
+  </si>
+  <si>
+    <t>D 200 mm</t>
+  </si>
+  <si>
+    <t>D 250 mm</t>
+  </si>
+  <si>
+    <t>Klebeanschluss-Stücke-Verkauf</t>
+  </si>
+  <si>
+    <t>D 150 mm Lang</t>
+  </si>
+  <si>
+    <t>Ausführung im Graben</t>
+  </si>
+  <si>
+    <t>Zuschlag für 2. Mann</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Notstrom Aggregat</t>
+  </si>
+  <si>
+    <t>Einsatz</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <r>
+      <t>Centub komplett</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> bohren, liefern u. einkleben (exkl. Istallation)</t>
+    </r>
+  </si>
+  <si>
+    <t>Installation Bohranlage pro Einsatz</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>D 182 mm (150er)</t>
+  </si>
+  <si>
+    <t>D 225 mm (200er)</t>
+  </si>
+  <si>
+    <t>D 300 mm (250er)</t>
+  </si>
+  <si>
+    <t>D 350 mm (300er)</t>
+  </si>
+  <si>
+    <r>
+      <t>Centub komplett</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bohren, liefern u. einkleben (exkl. Istallation)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;CHF&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +502,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -441,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1250,6 +1408,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1257,7 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1572,6 +1752,18 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1626,23 +1818,100 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1651,7 +1920,36 @@
     <cellStyle name="Notiz" xfId="2" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1728,14 +2026,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1748,12 +2055,359 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1786,7 +2440,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1942217</xdr:colOff>
+      <xdr:colOff>1942218</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>69076</xdr:rowOff>
     </xdr:to>
@@ -1825,18 +2479,83 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16803BA-64C3-4AA9-A79B-9C5D71B5170F}" name="Tabelle1" displayName="Tabelle1" ref="P94:S104" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F16803BA-64C3-4AA9-A79B-9C5D71B5170F}" name="Tabelle1" displayName="Tabelle1" ref="P94:S104" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="P94:S104" xr:uid="{F16803BA-64C3-4AA9-A79B-9C5D71B5170F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P95:R104">
     <sortCondition ref="R94:R104"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{33413FB5-0676-4D27-92C9-98A7AC10125A}" name="Material" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D9017F73-A8E2-4B88-80CE-ED1E10BB7733}" name="Einheit" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B2FC3A6A-2FA9-460E-90F1-B2F38A237349}" name="Ergiebigkeit (ml)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7B0B3CA2-1765-42EF-BC93-EEE42D1FBFDC}" name="Ergiebigkeit (li)" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{33413FB5-0676-4D27-92C9-98A7AC10125A}" name="Material" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D9017F73-A8E2-4B88-80CE-ED1E10BB7733}" name="Einheit" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B2FC3A6A-2FA9-460E-90F1-B2F38A237349}" name="Ergiebigkeit (ml)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7B0B3CA2-1765-42EF-BC93-EEE42D1FBFDC}" name="Ergiebigkeit (li)" dataDxfId="2">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Ergiebigkeit (ml)]]/1000</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7F02CDD-E419-4BC1-B93A-A3A01E0B6C9D}" name="Tabelle2" displayName="Tabelle2" ref="A7:D11" totalsRowShown="0">
+  <autoFilter ref="A7:D11" xr:uid="{F7F02CDD-E419-4BC1-B93A-A3A01E0B6C9D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9458D555-A84B-4204-82A7-E324BA4B9104}" name="Kernbohrungen" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D42DEEA7-8E31-4D23-BBB9-067F965EACE9}" name="Spalte1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D2787AF0-3D00-49E9-B68C-C4FFB4D038D0}" name="Spalte2" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{982DEE91-E7C3-4D97-B3A8-BA1E5C62EB9C}" name="Spalte3" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFDE7516-8E8E-4372-8390-BE9CB9FC45F2}" name="Tabelle3" displayName="Tabelle3" ref="A14:D18" totalsRowShown="0">
+  <autoFilter ref="A14:D18" xr:uid="{BFDE7516-8E8E-4372-8390-BE9CB9FC45F2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A66AF103-A5E8-43D8-9BFE-978097326E3F}" name="Anschluss-Stücke einkleben " dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{825AB212-115C-4A4F-AD61-7CD64E621D0B}" name="Spalte1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{567FDE53-6FC3-4195-AA1B-201038C12483}" name="Spalte2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AF4D8408-0403-4BD5-9139-F80115E3FB51}" name="Spalte3" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D95E629F-F7D8-4E27-908E-7AA58277E1CE}" name="Tabelle4" displayName="Tabelle4" ref="A21:D26" totalsRowShown="0">
+  <autoFilter ref="A21:D26" xr:uid="{D95E629F-F7D8-4E27-908E-7AA58277E1CE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AE787024-A681-4BD7-8F13-DCF996A5A46F}" name="Klebeanschluss-Stücke-Verkauf" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B858CC61-DD17-494E-9691-3A70EA27408F}" name="Spalte1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{35E70607-FA41-4AB6-9037-1F93F4DEC763}" name="Spalte2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{91A6C750-976C-4719-934A-05B58724D0DE}" name="Spalte3" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3E19746E-0605-4D28-A7B1-A01CD3CAD440}" name="Tabelle5" displayName="Tabelle5" ref="A29:D34" totalsRowShown="0">
+  <autoFilter ref="A29:D34" xr:uid="{3E19746E-0605-4D28-A7B1-A01CD3CAD440}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0F60A534-9708-4660-91D6-597F9379DB38}" name="Centub komplett bohren, liefern u. einkleben (exkl. Istallation)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A8FCA7FF-3703-418C-96E0-F600C9350D08}" name="Spalte1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E14CB55D-8CCF-4D32-8713-6CAFB5EA9159}" name="Spalte2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8B00B120-76F0-401E-8D78-05F99B247DB5}" name="Spalte3" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{51C93643-4047-4B9C-924F-F055BDD7A26B}" name="Tabelle6" displayName="Tabelle6" ref="A37:D38" totalsRowShown="0">
+  <autoFilter ref="A37:D38" xr:uid="{51C93643-4047-4B9C-924F-F055BDD7A26B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B2EA07AC-CDD2-410A-9C3F-793A75B93154}" name="Ausführung im Graben" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B2688347-30D9-4B96-A2B8-52ADD2F26F96}" name="Spalte1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5E0B2EE8-DEA7-43A5-AF0C-EC2318E328DF}" name="Spalte2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E7A8520C-E9CB-45AD-8746-A1BC61B0A50C}" name="Spalte3" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2140,10 +2859,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4B3F66-9D3F-4C91-8BE9-ECE6EDE6D365}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -2157,7 +2876,7 @@
     <col min="7" max="7" width="31.88671875" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.21875" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.88671875" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="45.33203125" style="32" customWidth="1"/>
     <col min="11" max="11" width="30.88671875" style="32" customWidth="1"/>
     <col min="12" max="12" width="26.77734375" style="32" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" style="32" bestFit="1" customWidth="1"/>
@@ -2171,38 +2890,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="106"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="3" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="4" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="1:18" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="33" t="s">
@@ -2318,8 +3037,8 @@
         <v>13</v>
       </c>
       <c r="D18" s="24"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
@@ -2332,8 +3051,8 @@
         <f>SUM(D6:D18)</f>
         <v>449.1</v>
       </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
@@ -2394,20 +3113,20 @@
     </row>
     <row r="26" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="27" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="102"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="106"/>
     </row>
     <row r="28" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="46" t="s">
@@ -2550,20 +3269,20 @@
     </row>
     <row r="45" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="46" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="100" t="s">
+      <c r="B46" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="102"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
     </row>
     <row r="47" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="46" t="s">
@@ -2718,20 +3437,20 @@
     </row>
     <row r="64" spans="3:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="65" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="100" t="s">
+      <c r="B65" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="102"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="106"/>
     </row>
     <row r="66" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="33" t="s">
@@ -2996,20 +3715,20 @@
       </c>
     </row>
     <row r="79" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="100" t="s">
+      <c r="B79" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="101"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="102"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="106"/>
     </row>
     <row r="80" spans="2:13" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="46" t="s">
@@ -3118,20 +3837,20 @@
     </row>
     <row r="86" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="87" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="100" t="s">
+      <c r="B87" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101"/>
-      <c r="H87" s="101"/>
-      <c r="I87" s="101"/>
-      <c r="J87" s="101"/>
-      <c r="K87" s="101"/>
-      <c r="L87" s="101"/>
-      <c r="M87" s="102"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="106"/>
     </row>
     <row r="88" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="46" t="s">
@@ -3155,14 +3874,14 @@
       <c r="I88" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="J88" s="118" t="s">
+      <c r="J88" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K88" s="118"/>
-      <c r="L88" s="118" t="s">
+      <c r="K88" s="100"/>
+      <c r="L88" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="M88" s="119"/>
+      <c r="M88" s="101"/>
     </row>
     <row r="89" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="93">
@@ -3188,33 +3907,33 @@
         <f>C89 * H89</f>
         <v>16.700000000000003</v>
       </c>
-      <c r="J89" s="121">
+      <c r="J89" s="102">
         <f>(1.95 * F89 + 1 * H89 - 18.96) * G89</f>
         <v>21.14</v>
       </c>
-      <c r="K89" s="122"/>
-      <c r="L89" s="121">
+      <c r="K89" s="123"/>
+      <c r="L89" s="102">
         <f>(1.82 * F89 + 0.86 * H89 - 19.84) *G89</f>
         <v>16.361999999999998</v>
       </c>
-      <c r="M89" s="123"/>
+      <c r="M89" s="103"/>
     </row>
     <row r="93" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="94" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="100" t="s">
+      <c r="B94" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="101"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="103"/>
-      <c r="I94" s="103"/>
-      <c r="J94" s="103"/>
-      <c r="K94" s="103"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="120"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="107"/>
+      <c r="E94" s="107"/>
+      <c r="F94" s="107"/>
+      <c r="G94" s="107"/>
+      <c r="H94" s="107"/>
+      <c r="I94" s="107"/>
+      <c r="J94" s="107"/>
+      <c r="K94" s="107"/>
+      <c r="L94" s="107"/>
+      <c r="M94" s="122"/>
       <c r="P94" s="89" t="s">
         <v>67</v>
       </c>
@@ -3247,13 +3966,13 @@
       <c r="H95" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="118" t="s">
+      <c r="I95" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="J95" s="118"/>
-      <c r="K95" s="118"/>
-      <c r="L95" s="118"/>
-      <c r="M95" s="119"/>
+      <c r="J95" s="100"/>
+      <c r="K95" s="100"/>
+      <c r="L95" s="100"/>
+      <c r="M95" s="101"/>
       <c r="P95" s="89" t="s">
         <v>59</v>
       </c>
@@ -3286,14 +4005,14 @@
         <f>ROUND(D96*PI()*(F96/2)^2*G96/1000, 1)</f>
         <v>8835.7000000000007</v>
       </c>
-      <c r="I96" s="114" t="str">
+      <c r="I96" s="118" t="str">
         <f>"= " &amp; D96 &amp; " Stk. * π * (" &amp; F96 &amp; " mm / 2)² * " &amp; G96 &amp; " mm / 1000"</f>
         <v>= 15 Stk. * π * (50 mm / 2)² * 300 mm / 1000</v>
       </c>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="115"/>
+      <c r="J96" s="118"/>
+      <c r="K96" s="118"/>
+      <c r="L96" s="118"/>
+      <c r="M96" s="119"/>
       <c r="P96" s="89" t="s">
         <v>60</v>
       </c>
@@ -3320,14 +4039,14 @@
         <f>ROUND(D96 * E97 * F97 * G97 / 1000, 1)</f>
         <v>0</v>
       </c>
-      <c r="I97" s="110" t="str">
+      <c r="I97" s="114" t="str">
         <f>"= " &amp; D96 &amp; " Stk. * " &amp; E97 &amp; " mm * " &amp; F97 &amp; " mm * " &amp; G96 &amp; " mm / 1000"</f>
         <v>= 15 Stk. *  mm *  mm * 300 mm / 1000</v>
       </c>
-      <c r="J97" s="110"/>
-      <c r="K97" s="110"/>
-      <c r="L97" s="110"/>
-      <c r="M97" s="111"/>
+      <c r="J97" s="114"/>
+      <c r="K97" s="114"/>
+      <c r="L97" s="114"/>
+      <c r="M97" s="115"/>
       <c r="P97" s="89" t="s">
         <v>61</v>
       </c>
@@ -3360,14 +4079,14 @@
         <f>ROUND(D98*PI()*(F98/2)^2*G98/1000, 1)</f>
         <v>692.7</v>
       </c>
-      <c r="I98" s="116" t="str">
+      <c r="I98" s="120" t="str">
         <f>"= " &amp; D98 &amp; " Stk. * π * (" &amp; F98 &amp; " mm / 2)² * " &amp; G98 &amp; " mm / 1000"</f>
         <v>= 15 Stk. * π * (14 mm / 2)² * 300 mm / 1000</v>
       </c>
-      <c r="J98" s="116"/>
-      <c r="K98" s="116"/>
-      <c r="L98" s="116"/>
-      <c r="M98" s="117"/>
+      <c r="J98" s="120"/>
+      <c r="K98" s="120"/>
+      <c r="L98" s="120"/>
+      <c r="M98" s="121"/>
       <c r="P98" s="89" t="s">
         <v>58</v>
       </c>
@@ -3419,11 +4138,11 @@
       <c r="H100" s="9">
         <v>15625</v>
       </c>
-      <c r="I100" s="107"/>
-      <c r="J100" s="108"/>
-      <c r="K100" s="108"/>
-      <c r="L100" s="108"/>
-      <c r="M100" s="109"/>
+      <c r="I100" s="111"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="112"/>
+      <c r="L100" s="112"/>
+      <c r="M100" s="113"/>
       <c r="P100" s="89" t="s">
         <v>56</v>
       </c>
@@ -3477,20 +4196,20 @@
       </c>
     </row>
     <row r="103" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="100" t="s">
+      <c r="B103" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
-      <c r="H103" s="103"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="101"/>
-      <c r="K103" s="101"/>
-      <c r="L103" s="101"/>
-      <c r="M103" s="102"/>
+      <c r="C103" s="107"/>
+      <c r="D103" s="107"/>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
+      <c r="M103" s="106"/>
       <c r="P103" s="89" t="s">
         <v>50</v>
       </c>
@@ -3567,14 +4286,276 @@
         <v>43.294614572333678</v>
       </c>
     </row>
+    <row r="108" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="109" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="106"/>
+    </row>
+    <row r="110" spans="2:19" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D110" s="100"/>
+      <c r="E110" s="100"/>
+      <c r="F110" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="J110" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C111" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="D111" s="141"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="142">
+        <v>160</v>
+      </c>
+      <c r="I111" s="25">
+        <v>1</v>
+      </c>
+      <c r="J111" s="143">
+        <f>H111*I111</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.5">
+      <c r="C112" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="132"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="153"/>
+      <c r="G112" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="134">
+        <v>50</v>
+      </c>
+      <c r="I112" s="10">
+        <v>1</v>
+      </c>
+      <c r="J112" s="144">
+        <f>H112*I112</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C113" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="153"/>
+      <c r="G113" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="133">
+        <v>50</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="145">
+        <f>H113*I113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C114" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" s="132"/>
+      <c r="E114" s="132"/>
+      <c r="F114" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G114" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="134">
+        <f>VLOOKUP(Main!F114, Tabelle2[], 4, FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="I114" s="10">
+        <v>1</v>
+      </c>
+      <c r="J114" s="144">
+        <f>H114*I114</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C115" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="130"/>
+      <c r="E115" s="130"/>
+      <c r="F115" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G115" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="133">
+        <f>VLOOKUP(F115, Tabelle3[], 4, FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="I115" s="11">
+        <v>1</v>
+      </c>
+      <c r="J115" s="145">
+        <f>H115*I115</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="147"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G116" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="148">
+        <f>VLOOKUP(F116, Tabelle4[], 4, FALSE)</f>
+        <v>199</v>
+      </c>
+      <c r="I116" s="26">
+        <v>1</v>
+      </c>
+      <c r="J116" s="149">
+        <f>H116*I116</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G117" s="154"/>
+      <c r="J117" s="139">
+        <f>SUM(J111:J116)</f>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G118" s="154"/>
+      <c r="J118" s="137"/>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C119" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="D119" s="141"/>
+      <c r="E119" s="141"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="142">
+        <v>160</v>
+      </c>
+      <c r="I119" s="25">
+        <v>1</v>
+      </c>
+      <c r="J119" s="143">
+        <f>H119*I119</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C120" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="D120" s="132"/>
+      <c r="E120" s="132"/>
+      <c r="F120" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="134">
+        <f>VLOOKUP(F120, Tabelle5[], 4, FALSE)</f>
+        <v>356</v>
+      </c>
+      <c r="I120" s="10">
+        <v>1</v>
+      </c>
+      <c r="J120" s="134">
+        <f>H120*I120</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C121" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="G121" s="154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.5">
+      <c r="C122" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="132"/>
+      <c r="E122" s="132"/>
+      <c r="G122" s="154" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J123" s="139">
+        <f>SUM(J119:J122)</f>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10" ht="26.4" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="20">
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="B65:M65"/>
-    <mergeCell ref="B79:M79"/>
-    <mergeCell ref="B46:M46"/>
+  <mergeCells count="32">
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="B109:M109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
     <mergeCell ref="B27:M27"/>
     <mergeCell ref="B103:M103"/>
     <mergeCell ref="B4:M4"/>
@@ -3590,6 +4571,11 @@
     <mergeCell ref="B87:M87"/>
     <mergeCell ref="J88:K88"/>
     <mergeCell ref="J89:K89"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B65:M65"/>
+    <mergeCell ref="B79:M79"/>
+    <mergeCell ref="B46:M46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{8755FF45-AE32-43C5-A8E5-3C9AD9B516FE}"/>
@@ -3604,5 +4590,504 @@
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{916F70D1-60C6-4F17-A414-BD841E2A8599}">
+          <x14:formula1>
+            <xm:f>Tabelle1!$A$8:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F114</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6EDCA8B-4731-4FD3-A161-383E35F8FBE8}">
+          <x14:formula1>
+            <xm:f>Tabelle1!$A$15:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>F115</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDF26B0C-6B05-43FC-BD62-892CE572CDEF}">
+          <x14:formula1>
+            <xm:f>Tabelle1!$A$22:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>F116</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E5FAE6A-D9A1-4F4F-8595-08DB5BECE89A}">
+          <x14:formula1>
+            <xm:f>Tabelle1!$A$30:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>F120</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B321FD-7AB7-47A1-B19F-06E0DC67D3E2}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="127">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="127"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="128"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="127">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="124"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="127">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="127">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="127">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="127">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="128"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="128"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="127">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="127">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="127">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="127">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="128"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="128"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="127">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="127">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="127">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="127">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="127">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="128"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="128"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="127">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="127">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="127">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="127">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="127">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="128"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="127"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="128"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="127">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="5">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>